--- a/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/HoiVienHoTro.xlsx
+++ b/HoiNongDan/HoiNongDan.Web/wwwroot/upload/filemau/HoiVienHoTro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HoiNongDan\HoiNongDanVN\HoiNongDan\HoiNongDan.Web\wwwroot\upload\filemau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7F9405-9B18-4C2F-9398-B149AA943396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DECCCE0-6F61-4126-A1ED-B47753085517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A3C10594-97B7-490C-A58A-C86816B68C1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A3C10594-97B7-490C-A58A-C86816B68C1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Ghi chú</t>
   </si>
@@ -43,21 +43,6 @@
   </si>
   <si>
     <t>Bắt buộc phải nhập</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Số thẻ Hội viên </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -118,9 +103,6 @@
   </si>
   <si>
     <t>Nguyễn Thị Ngọc Hương</t>
-  </si>
-  <si>
-    <t>Mất thẻ</t>
   </si>
   <si>
     <t>024556621  16/8/2008</t>
@@ -235,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -259,14 +241,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -583,48 +562,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4492A19E-36C7-4FA3-A76F-AEAF296971DF}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14" style="4" customWidth="1"/>
-    <col min="4" max="5" width="30" style="8" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="4" width="30" style="8" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="G2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-      <c r="C3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="10"/>
+    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10"/>
+      <c r="D3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="12"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -632,12 +609,11 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="5"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -645,69 +621,59 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4434</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
